--- a/medicine/Psychotrope/Brasserie_Minne/Brasserie_Minne.xlsx
+++ b/medicine/Psychotrope/Brasserie_Minne/Brasserie_Minne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La brasserie Minne (anciennement : brasserie de Bastogne) est une brasserie belge située à Baillonville dans la commune belge de Somme-Leuze en province de Namur.
@@ -512,12 +524,14 @@
           <t>Brasserie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La première bière brassée fut la Trouffette blonde le 26 janvier 2008. En décembre 2008, la Brasserie de Bastogne voit le jour et produit ensuite de nouvelles bières créées par Philippe Minne dont l'arrière grand-père et le grand-père étaient brasseurs et Philippe Meurisse, un agriculteur local.
-La brasserie utilise une cuve de fermentation ouverte et des cuves de garde pour l’affinage naturel du produit. Les bières sont non pasteurisées et non filtrées[1].
+La brasserie utilise une cuve de fermentation ouverte et des cuves de garde pour l’affinage naturel du produit. Les bières sont non pasteurisées et non filtrées.
 Les bières originales de la brasserie sont reprises comme Belgian Beer of Wallonia, protection accordée par l'Agence wallonne pour la promotion d'une agriculture de qualité (APAQ-W).
-La brasserie déménage en février 2019 pour s'installer dans de nouvelles installations plus spacieuses à Baillonville (Somme-Leuze) et s'appelle désormais la brasserie Minne du nom de son maître brasseur Philippe Minne[2].
+La brasserie déménage en février 2019 pour s'installer dans de nouvelles installations plus spacieuses à Baillonville (Somme-Leuze) et s'appelle désormais la brasserie Minne du nom de son maître brasseur Philippe Minne.
 </t>
         </is>
       </c>
@@ -546,11 +560,13 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les huit principales bières de la brasserie sont commercialisées en bouteilles de 33 et/ou 75 cl capsulées.
 La Bastogne Pale Ale est une bière IPA, blonde légère houblonnée, à l'épeautre. Elle titre 6 % en volume d'alcool. Elle a remporté le prix des dégustateurs professionnels en 2011 au Modeste Bier Festival à Anvers et le premier prix au concours Best Belgian Beer of Walonia en 2012.
-La Trouffette se décline en deux variétés de bières de haute fermentation avec adjonction de levure d'Orval[3] sont non filtrées et refermentées en bouteilles :
+La Trouffette se décline en deux variétés de bières de haute fermentation avec adjonction de levure d'Orval sont non filtrées et refermentées en bouteilles :
 La Trouffette Blonde est une bière cuivrée, moelleuse avec une franche amertume et un arôme fleuri. Elle titre 6 % en volume d'alcool. C'est la plus ancienne bière brassée depuis 2008.
 La Trouffette Rousse est une bière d'un bel orange flamboyant. Douce et corsée, nez malté aux effluves caramélisés, elle titre 7,5 % en volume d'alcool.
 L'Ardenne Stout est un stout produit à base d'épeautre grillé titrant 8 % en volume d'alcool.
